--- a/DRUG DISEASE.xlsx
+++ b/DRUG DISEASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT Room\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943209D0-5235-4AEC-9B48-BA95AEA49A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429DA147-3F62-4BAF-BC42-835D77694A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3244C3E9-4DF0-4247-BD4E-75BB2D6BE0CE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="157">
   <si>
     <t>ชื่อยา</t>
   </si>
@@ -307,9 +307,6 @@
     <t>MINIDIAB 5 MG  ( L )</t>
   </si>
   <si>
-    <t>ESSENTIALE   ( L )</t>
-  </si>
-  <si>
     <t>MTV  </t>
   </si>
   <si>
@@ -356,6 +353,156 @@
   </si>
   <si>
     <t>z242</t>
+  </si>
+  <si>
+    <t>ESSENTIALE  </t>
+  </si>
+  <si>
+    <t>ASPIRIN 81 MG ( L )</t>
+  </si>
+  <si>
+    <t>I694</t>
+  </si>
+  <si>
+    <t>ATIVAN 1 MG***SA6</t>
+  </si>
+  <si>
+    <t>MYDOCALM  TAB.</t>
+  </si>
+  <si>
+    <t>CAFERGOT (L)</t>
+  </si>
+  <si>
+    <t>G442</t>
+  </si>
+  <si>
+    <t>SYRINGE 5 CC</t>
+  </si>
+  <si>
+    <t>ALLOPURINOL 300 MG (ZYLORIC)</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
+    <t>M6261</t>
+  </si>
+  <si>
+    <t>CARDURA 2 MG</t>
+  </si>
+  <si>
+    <t>N40</t>
+  </si>
+  <si>
+    <t>IMODIUM  2 MG</t>
+  </si>
+  <si>
+    <t>A058</t>
+  </si>
+  <si>
+    <t>ZOVIRAX CREAM 1 G</t>
+  </si>
+  <si>
+    <t>ZOVIRAX 400 MG  </t>
+  </si>
+  <si>
+    <t>NEURONTIN 300 MG (L)</t>
+  </si>
+  <si>
+    <t>B029</t>
+  </si>
+  <si>
+    <t>H931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAMAMINE 50 MG </t>
+  </si>
+  <si>
+    <t>CHLORAMPHENICOL EAR DROP 10 ML</t>
+  </si>
+  <si>
+    <t>DERMOVATE CREAM (per G)</t>
+  </si>
+  <si>
+    <t>L239</t>
+  </si>
+  <si>
+    <t>COUMADIN 5 MG  (HAD)</t>
+  </si>
+  <si>
+    <t>I829</t>
+  </si>
+  <si>
+    <t>R252</t>
+  </si>
+  <si>
+    <t>T.T 0.5 ML เข็มที่2</t>
+  </si>
+  <si>
+    <t>Z235</t>
+  </si>
+  <si>
+    <t>DEX - OPH  EYE DROP</t>
+  </si>
+  <si>
+    <t>VIGAMOX EYE DROP 5ml</t>
+  </si>
+  <si>
+    <t>H645</t>
+  </si>
+  <si>
+    <t>CLARITYNE 10 MG TAB*** SA4</t>
+  </si>
+  <si>
+    <t>R040</t>
+  </si>
+  <si>
+    <t>SPASURI  100 MG  TAB</t>
+  </si>
+  <si>
+    <t>N201</t>
+  </si>
+  <si>
+    <t>H609</t>
+  </si>
+  <si>
+    <t>K291</t>
+  </si>
+  <si>
+    <t>DIFELENE GEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENARIL 20 MG  </t>
+  </si>
+  <si>
+    <t>ATARAX 10 MG*** SA3</t>
+  </si>
+  <si>
+    <t>H110</t>
+  </si>
+  <si>
+    <t>DIPROSALIC 1 G CREAM (2)</t>
+  </si>
+  <si>
+    <t>N309</t>
+  </si>
+  <si>
+    <t>TLD (L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATIVAN 1 MG***SA6 </t>
+  </si>
+  <si>
+    <t>F411</t>
+  </si>
+  <si>
+    <t>PROCTOSEDYL  SUPPO</t>
+  </si>
+  <si>
+    <t>DAFLON 500 MG</t>
+  </si>
+  <si>
+    <t>K649</t>
   </si>
 </sst>
 </file>
@@ -719,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC5C3C-1E59-4742-8E49-52DA351D6E49}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D102"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162:D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -1426,26 +1573,26 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" t="s">
         <v>92</v>
-      </c>
-      <c r="D88" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" t="s">
         <v>94</v>
-      </c>
-      <c r="D89" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
@@ -1453,23 +1600,23 @@
         <v>67</v>
       </c>
       <c r="D90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" t="s">
         <v>97</v>
-      </c>
-      <c r="D92" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
@@ -1477,7 +1624,7 @@
         <v>48</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
@@ -1485,7 +1632,7 @@
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
@@ -1493,7 +1640,7 @@
         <v>56</v>
       </c>
       <c r="D95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
@@ -1501,7 +1648,7 @@
         <v>31</v>
       </c>
       <c r="D96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
@@ -1509,31 +1656,31 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" t="s">
         <v>97</v>
-      </c>
-      <c r="D99" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
@@ -1541,15 +1688,503 @@
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" t="s">
         <v>106</v>
       </c>
-      <c r="D102" t="s">
-        <v>107</v>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107">
+        <v>9929</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D108" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D128" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A130" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>127</v>
+      </c>
+      <c r="D131" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D137" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D138" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A143" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A144" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A148" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A149" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D149" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A150" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D150" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A151" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A152" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D152" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A153" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D153" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A154" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D154" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A155" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A156" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D156" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A157" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D157" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A158" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D158" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A159" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D159" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A160" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D160" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>152</v>
+      </c>
+      <c r="D161" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A162" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D162" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A163" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D163" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/DRUG DISEASE.xlsx
+++ b/DRUG DISEASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT Room\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429DA147-3F62-4BAF-BC42-835D77694A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D566524-76CF-4B88-A483-FA38B3A1AD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3244C3E9-4DF0-4247-BD4E-75BB2D6BE0CE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="218">
   <si>
     <t>ชื่อยา</t>
   </si>
@@ -503,6 +503,200 @@
   </si>
   <si>
     <t>K649</t>
+  </si>
+  <si>
+    <t>H913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">หูอื้อข้างขวา เป็นมา 2 วัน **ไม่มีไอไม่มีน้ำมูก**  </t>
+  </si>
+  <si>
+    <t>WAXSOL  EAR DROP</t>
+  </si>
+  <si>
+    <t>H612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปวดหูข้างขวา หูอื้อ เป็นมา วันนี้ </t>
+  </si>
+  <si>
+    <t>ALUM MILK 240 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>R1048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เวียศีรษะ ปวดจุกท้อง ปวดจุกลิ้นปี่  เป็นมา 4 วัน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปวดศีรษะ  ปวดมือตามร่างกาย   1  วัน ก่อนมา </t>
+  </si>
+  <si>
+    <t>R510</t>
+  </si>
+  <si>
+    <t>ปวดไหล่ข้างซ้าย เป็นมา 2 วัน LMP เป็นอยู่</t>
+  </si>
+  <si>
+    <t>AMOXYCILLIN 250 MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไข้ ไอเข็บคอ เเห้งๆ ปวดเมื่อยตามตัว ปวดศีรษะ เป็นมา2 วันLMP </t>
+  </si>
+  <si>
+    <t>NORFLOXACIN 100 MG</t>
+  </si>
+  <si>
+    <t>ปวดจุกเเน่นท้อง ไม่มีท้องเสีย คลื่นไส้อาเจียน 2ครั้ง เป็นมา1 วัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปวดศีรษะขวา ไอมีเสมหะ มีนํ้ามูก อ่อนเพลีย ปวดเมื่อย ตามร่างกาย เป็นมา2วัน </t>
+  </si>
+  <si>
+    <t>ATORVASTATIN 20  MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLP  </t>
+  </si>
+  <si>
+    <t>I988</t>
+  </si>
+  <si>
+    <t>H109</t>
+  </si>
+  <si>
+    <t>ตาอักเสบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คันที่ขาบริเวณทั้งสองข้าง เป็นมา 2 สัปดาห์ </t>
+  </si>
+  <si>
+    <t>NEURONTIN 100 MG (L)</t>
+  </si>
+  <si>
+    <t>VITAMIN B 1-6-12  </t>
+  </si>
+  <si>
+    <t>G560</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ชาฝ่ามือหลังทำงานพับผ้าต่อเนื่องคนเดียวหลายวัน ชาปลายนิ้วมือทั้งสองข้างเป็นๆหายๆ </t>
+  </si>
+  <si>
+    <t>DICLOXACILLIN 500 MG.</t>
+  </si>
+  <si>
+    <t>CHLORAMPHENICOL EYE DROP 10 ML</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT 5 G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตุ่มที่เปลือกตาข้างขวา มีอาการเจ็บ เป็นมา 4 วัน </t>
+  </si>
+  <si>
+    <t>ปวด ตึงบริเวณเข่าข้างซ้าย ไม่มีอุบัติเหตุ</t>
+  </si>
+  <si>
+    <t>M6266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">บ้านหมุน 2 วัน นอนไม่หลับ </t>
+  </si>
+  <si>
+    <t>SCABICIDE  EMULSION 450 ML</t>
+  </si>
+  <si>
+    <t>B86</t>
+  </si>
+  <si>
+    <t>คันบริเวณขาหนีบทั้ง 2 ข้าง เป็นมา 3 วัน เคยเป็นหิดและเชื้อรามาก่อน</t>
+  </si>
+  <si>
+    <t>G439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปวดศีษะข้างขวา ปวดร้าวลงกระบอกตา ตาพร่ามัว ** ทำงานหน้าคอม ** เป็นมา 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> มีเสมหะในคอมานาน</t>
+  </si>
+  <si>
+    <t>ฝากครรภ์ที่คลินิกหมอผกาภรณ์
+มีท้องแข็งเป็นพักๆ เป็นมา 1 สัปดาห์ /รู้สึกลูกดิ้นน้อยลง 2 วัน 
+ปวดท้องน้อยข้างซ้าย ปวดเป็นพักๆ เป็นมา 1 วัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEXAMETHASONE 4 MG/ 1ML INJ.
+</t>
+  </si>
+  <si>
+    <t>SYRINGE 3 CC</t>
+  </si>
+  <si>
+    <t>ADALAT 10 MG</t>
+  </si>
+  <si>
+    <t>O603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เวียนศีรษะ มึนงง  บ้านหมุน คลื่นไส้อาเจียน2ครั้ง  เป็นมา2วัน + ผื่นคันที่แขน 2 ข้าง ทำงานแม่บ้าน </t>
+  </si>
+  <si>
+    <t>UREA CREAM 10% /GM</t>
+  </si>
+  <si>
+    <t>TA 0.1% - CREAM /GM</t>
+  </si>
+  <si>
+    <t>L239
+R42</t>
+  </si>
+  <si>
+    <t>TRANSAMINE 250 MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+มีเลือดออกทางช่องคลอด</t>
+  </si>
+  <si>
+    <t>มีเลือดออกทางช่องคลอด</t>
+  </si>
+  <si>
+    <t>N939</t>
+  </si>
+  <si>
+    <t>CHLORAMPHENICOL EYE OINT 5  G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตุ่มใสพองบริเวณนิ้วโป้งเท้าขวา เป็นมา 1วัน </t>
+  </si>
+  <si>
+    <t>L139</t>
+  </si>
+  <si>
+    <t>ฉีดยา TT เข็มที่ 2</t>
+  </si>
+  <si>
+    <t>TRYPTANOL 10 MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผื่นแดงที่ขาข้างซ้าย มีเป็นเม็ดใสๆ เป็๋นมา 2 วัน </t>
+  </si>
+  <si>
+    <t>ROPECT  
+BISOLVON 8 MG
+CLARITYNE 10 MG TAB*** SA4
+CPM  4  MG TAB
+PREDNISOLONE 5 MG  
+RULID 150 MG  (L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไอ มีเสมหะ เจ็บคอ มีน้ำมูก เป็นมา 1 เดือน  </t>
+  </si>
+  <si>
+    <t>J209
+J40</t>
   </si>
 </sst>
 </file>
@@ -866,15 +1060,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC5C3C-1E59-4742-8E49-52DA351D6E49}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162:D163"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -2187,6 +2382,696 @@
         <v>156</v>
       </c>
     </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>158</v>
+      </c>
+      <c r="D164" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A165" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B165" t="s">
+        <v>161</v>
+      </c>
+      <c r="D165" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A166" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B166" t="s">
+        <v>161</v>
+      </c>
+      <c r="D166" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A167" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" t="s">
+        <v>164</v>
+      </c>
+      <c r="D167" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B168" t="s">
+        <v>164</v>
+      </c>
+      <c r="D168" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A169" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" t="s">
+        <v>164</v>
+      </c>
+      <c r="D169" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A170" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B170" t="s">
+        <v>164</v>
+      </c>
+      <c r="D170" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A171" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B171" t="s">
+        <v>165</v>
+      </c>
+      <c r="D171" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B172" t="s">
+        <v>165</v>
+      </c>
+      <c r="D172" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A173" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D173" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A174" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D174" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A175" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B175" t="s">
+        <v>167</v>
+      </c>
+      <c r="D175" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A176" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B176" t="s">
+        <v>169</v>
+      </c>
+      <c r="D176" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A177" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>169</v>
+      </c>
+      <c r="D177" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A178" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" t="s">
+        <v>169</v>
+      </c>
+      <c r="D178" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A179" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B179" t="s">
+        <v>169</v>
+      </c>
+      <c r="D179" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A180" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B180" t="s">
+        <v>171</v>
+      </c>
+      <c r="D180" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A181" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B181" t="s">
+        <v>171</v>
+      </c>
+      <c r="D181" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B182" t="s">
+        <v>172</v>
+      </c>
+      <c r="D182" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A183" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B183" t="s">
+        <v>172</v>
+      </c>
+      <c r="D183" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A184" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184" t="s">
+        <v>172</v>
+      </c>
+      <c r="D184" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A185" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>172</v>
+      </c>
+      <c r="D185" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A186" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B186" t="s">
+        <v>174</v>
+      </c>
+      <c r="D186" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A187" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D187" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A188" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B188" t="s">
+        <v>177</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A189" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B189" t="s">
+        <v>178</v>
+      </c>
+      <c r="D189" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A190" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B190" t="s">
+        <v>178</v>
+      </c>
+      <c r="D190" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A191" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B191" t="s">
+        <v>178</v>
+      </c>
+      <c r="D191" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A192" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B192" t="s">
+        <v>182</v>
+      </c>
+      <c r="D192" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A193" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B193" t="s">
+        <v>182</v>
+      </c>
+      <c r="D193" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A194" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B194" t="s">
+        <v>182</v>
+      </c>
+      <c r="D194" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A195" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B195" t="s">
+        <v>186</v>
+      </c>
+      <c r="D195" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A196" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B196" t="s">
+        <v>186</v>
+      </c>
+      <c r="D196" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A197" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B197" t="s">
+        <v>186</v>
+      </c>
+      <c r="D197" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A198" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>186</v>
+      </c>
+      <c r="D198" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A199" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B199" t="s">
+        <v>187</v>
+      </c>
+      <c r="D199" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A200" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B200" t="s">
+        <v>187</v>
+      </c>
+      <c r="D200" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A201" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B201" t="s">
+        <v>187</v>
+      </c>
+      <c r="D201" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>189</v>
+      </c>
+      <c r="D202" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A203" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B203" t="s">
+        <v>192</v>
+      </c>
+      <c r="D203" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A204" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B204" t="s">
+        <v>192</v>
+      </c>
+      <c r="D204" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A205" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B205" t="s">
+        <v>192</v>
+      </c>
+      <c r="D205" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A206" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B206" t="s">
+        <v>192</v>
+      </c>
+      <c r="D206" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A207" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B207" t="s">
+        <v>194</v>
+      </c>
+      <c r="D207" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A208" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B208" t="s">
+        <v>194</v>
+      </c>
+      <c r="D208" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A209" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B209" t="s">
+        <v>195</v>
+      </c>
+      <c r="D209" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="90" x14ac:dyDescent="0.45">
+      <c r="A210" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D210" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="90" x14ac:dyDescent="0.45">
+      <c r="A211" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D211" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="90" x14ac:dyDescent="0.45">
+      <c r="A212" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D212" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A213" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B213" t="s">
+        <v>201</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A214" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B214" t="s">
+        <v>201</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>201</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D216" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A217" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D217" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A218" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B218" t="s">
+        <v>207</v>
+      </c>
+      <c r="D218" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A219" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B219" t="s">
+        <v>210</v>
+      </c>
+      <c r="D219" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A220" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B220" t="s">
+        <v>210</v>
+      </c>
+      <c r="D220" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A221" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B221" t="s">
+        <v>210</v>
+      </c>
+      <c r="D221" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A222" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B222" t="s">
+        <v>212</v>
+      </c>
+      <c r="D222" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A223" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B223" t="s">
+        <v>214</v>
+      </c>
+      <c r="D223" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A224" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B224" t="s">
+        <v>214</v>
+      </c>
+      <c r="D224" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A225" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B225" t="s">
+        <v>214</v>
+      </c>
+      <c r="D225" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="135" x14ac:dyDescent="0.45">
+      <c r="A226" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B226" t="s">
+        <v>216</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DRUG DISEASE.xlsx
+++ b/DRUG DISEASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT Room\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D566524-76CF-4B88-A483-FA38B3A1AD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061E5D4B-6C32-498B-92DD-597E3B6F0372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3244C3E9-4DF0-4247-BD4E-75BB2D6BE0CE}"/>
+    <workbookView xWindow="4545" yWindow="0" windowWidth="17595" windowHeight="12780" xr2:uid="{3244C3E9-4DF0-4247-BD4E-75BB2D6BE0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="247">
   <si>
     <t>ชื่อยา</t>
   </si>
@@ -697,6 +697,93 @@
   <si>
     <t>J209
 J40</t>
+  </si>
+  <si>
+    <t>PRIMOLUT- N 5  MG ( O )</t>
+  </si>
+  <si>
+    <t>E288</t>
+  </si>
+  <si>
+    <t>M543</t>
+  </si>
+  <si>
+    <t>GENTAMICIN CREAM (per G)</t>
+  </si>
+  <si>
+    <t>CANESTEN VAG SUPPO 100  MG</t>
+  </si>
+  <si>
+    <t>B373</t>
+  </si>
+  <si>
+    <t>TRANXENE 5 MG</t>
+  </si>
+  <si>
+    <t>G470</t>
+  </si>
+  <si>
+    <t>J449</t>
+  </si>
+  <si>
+    <t>SIBELIUM  5  MG</t>
+  </si>
+  <si>
+    <t>บรรเทาอาการบ้านหมุน</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10 MG TAB</t>
+  </si>
+  <si>
+    <t>คลื่นไส้</t>
+  </si>
+  <si>
+    <t>K643</t>
+  </si>
+  <si>
+    <t>F510</t>
+  </si>
+  <si>
+    <t>XANAX 0.25 MG***SA6</t>
+  </si>
+  <si>
+    <t>ATIVAN 0.5 MG*** SA4</t>
+  </si>
+  <si>
+    <t>F413</t>
+  </si>
+  <si>
+    <t>ZYMRON 15 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUFEN 400 MG </t>
+  </si>
+  <si>
+    <t>MESTINON  60  MG</t>
+  </si>
+  <si>
+    <t>G700</t>
+  </si>
+  <si>
+    <t>3TC  150  MG TAB</t>
+  </si>
+  <si>
+    <t>B181</t>
+  </si>
+  <si>
+    <t>VALOSINE SR 75 mg</t>
+  </si>
+  <si>
+    <t>TRYPTANAL 25 MG*** LA1</t>
+  </si>
+  <si>
+    <t>F320</t>
+  </si>
+  <si>
+    <t>M159</t>
+  </si>
+  <si>
+    <t>VOLTAREN  25  MG TAB*** LA1/SA5</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC5C3C-1E59-4742-8E49-52DA351D6E49}">
-  <dimension ref="A1:D226"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G216" sqref="G216"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -3072,6 +3159,220 @@
         <v>217</v>
       </c>
     </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A227" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D227" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A228" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D228" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A229" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D229" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A230" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D230" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D231" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A232" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D232" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A233" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D233" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A234" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D234" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A235" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D235" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A236" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D236" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A237" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A238" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D238" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A239" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D239" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>227</v>
+      </c>
+      <c r="B240" t="s">
+        <v>228</v>
+      </c>
+      <c r="D240" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A241" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B241" t="s">
+        <v>230</v>
+      </c>
+      <c r="D241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A242" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A243" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D243" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A244" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D244" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A245" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D245" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>236</v>
+      </c>
+      <c r="D246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A247" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>238</v>
+      </c>
+      <c r="D248" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A249" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D249" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A250" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D250" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A251" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D251" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A252" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D252" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DRUG DISEASE.xlsx
+++ b/DRUG DISEASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT Room\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061E5D4B-6C32-498B-92DD-597E3B6F0372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88176FD-64C9-45B9-B8FE-366690D65499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="0" windowWidth="17595" windowHeight="12780" xr2:uid="{3244C3E9-4DF0-4247-BD4E-75BB2D6BE0CE}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17595" windowHeight="12780" xr2:uid="{3244C3E9-4DF0-4247-BD4E-75BB2D6BE0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="316">
   <si>
     <t>ชื่อยา</t>
   </si>
@@ -784,6 +784,213 @@
   </si>
   <si>
     <t>VOLTAREN  25  MG TAB*** LA1/SA5</t>
+  </si>
+  <si>
+    <t>F329</t>
+  </si>
+  <si>
+    <t>VITAMIN B6 50mg</t>
+  </si>
+  <si>
+    <t>INH -  ISONIAZID 100 MG  TAB</t>
+  </si>
+  <si>
+    <t>RIFAMPICIN  600  MG</t>
+  </si>
+  <si>
+    <t>A154</t>
+  </si>
+  <si>
+    <t>VITAMIN B COMPLEX</t>
+  </si>
+  <si>
+    <t>M4796</t>
+  </si>
+  <si>
+    <t>SODAMINT</t>
+  </si>
+  <si>
+    <t>CHALK CAP 350 MG</t>
+  </si>
+  <si>
+    <t>MINOXIDIL  5 MG</t>
+  </si>
+  <si>
+    <t>FBC TAB (FERROPRO)</t>
+  </si>
+  <si>
+    <t>FOLIC ACID 5 MG</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 6.25 TAB</t>
+  </si>
+  <si>
+    <t>LOPID 600 MG</t>
+  </si>
+  <si>
+    <t>ONE- ALPHA  0.25 MCG.</t>
+  </si>
+  <si>
+    <t>VITAMIN C 500 MG 2 ML INJ.</t>
+  </si>
+  <si>
+    <t>OXYGEN  CANNULA</t>
+  </si>
+  <si>
+    <t>D569,E782,I120,N185</t>
+  </si>
+  <si>
+    <t>BRICANYL 2.5 MG</t>
+  </si>
+  <si>
+    <t>SIBELIUM  5  MG</t>
+  </si>
+  <si>
+    <t>kenalog 1 g ( oral base )</t>
+  </si>
+  <si>
+    <t>K1379</t>
+  </si>
+  <si>
+    <t>STUGERON 25 MG</t>
+  </si>
+  <si>
+    <t>TAMIFLU 75 MG (L)</t>
+  </si>
+  <si>
+    <t>J101</t>
+  </si>
+  <si>
+    <t>DOXYCYCLINE 100 MG</t>
+  </si>
+  <si>
+    <t>ESSENTIALE   ( L )</t>
+  </si>
+  <si>
+    <t>VERORAB 0.5 ML (เข็มที่4)</t>
+  </si>
+  <si>
+    <t>Z242</t>
+  </si>
+  <si>
+    <t>BERODUAL INH. (X)</t>
+  </si>
+  <si>
+    <t>J439</t>
+  </si>
+  <si>
+    <t>M653</t>
+  </si>
+  <si>
+    <t>RIVOTRIL 2 MG</t>
+  </si>
+  <si>
+    <t>F410</t>
+  </si>
+  <si>
+    <t>TENOFOVIR 300 mg.</t>
+  </si>
+  <si>
+    <t>CYTOTEC 200MCG</t>
+  </si>
+  <si>
+    <t>O200</t>
+  </si>
+  <si>
+    <t>A600</t>
+  </si>
+  <si>
+    <t>POLY-OPH EYE DROP</t>
+  </si>
+  <si>
+    <t>MAXITROL EYE OINTMENT</t>
+  </si>
+  <si>
+    <t>EYE PADS</t>
+  </si>
+  <si>
+    <t>H001</t>
+  </si>
+  <si>
+    <t>DEANXIT TAB</t>
+  </si>
+  <si>
+    <t>F432</t>
+  </si>
+  <si>
+    <t>R224</t>
+  </si>
+  <si>
+    <t>PROZAC 20 MG</t>
+  </si>
+  <si>
+    <t>NSS 1000 ML ( Irrigate )=ฝาเกลียว</t>
+  </si>
+  <si>
+    <t>MAXIPHED  60  MG</t>
+  </si>
+  <si>
+    <t>HALDOL 2 MG</t>
+  </si>
+  <si>
+    <t>CHLORPROMAZINE 25 MG</t>
+  </si>
+  <si>
+    <t>K802</t>
+  </si>
+  <si>
+    <t>PROVERA 5 MG</t>
+  </si>
+  <si>
+    <t>N938</t>
+  </si>
+  <si>
+    <t>F328</t>
+  </si>
+  <si>
+    <t>MYDOCALM  TAB.</t>
+  </si>
+  <si>
+    <t>M771</t>
+  </si>
+  <si>
+    <t>CANDID  EAR  DROPS  15 ML</t>
+  </si>
+  <si>
+    <t>H608</t>
+  </si>
+  <si>
+    <t>L309</t>
+  </si>
+  <si>
+    <t>IV CATH NO.22</t>
+  </si>
+  <si>
+    <t>IV SET</t>
+  </si>
+  <si>
+    <t>NSS 100  ML INJ.</t>
+  </si>
+  <si>
+    <t>ROCEPHIN 1 G INJ. ( L )</t>
+  </si>
+  <si>
+    <t>SYRINGE 10 CC</t>
+  </si>
+  <si>
+    <t>N341</t>
+  </si>
+  <si>
+    <t>SEROFLO 125</t>
+  </si>
+  <si>
+    <t>CANESTEN CREAM  1 GM</t>
+  </si>
+  <si>
+    <t>B354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOXYCILLIN 500 MG </t>
   </si>
 </sst>
 </file>
@@ -1147,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC5C3C-1E59-4742-8E49-52DA351D6E49}">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:D356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D234" sqref="D234"/>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D356" sqref="D356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -3373,6 +3580,838 @@
         <v>245</v>
       </c>
     </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>236</v>
+      </c>
+      <c r="D253" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A254" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D254" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A255" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D255" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A256" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D256" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A257" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D257" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A258" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D258" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A259" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D259" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A260" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D260" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A261" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D261" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A262" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D262" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A263" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D263" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A264" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D264" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A265" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A266" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D266" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A267" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D267" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A268" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D268" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A269" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D269" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A270" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D270" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A271" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D271" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A272" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D272" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A273" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D273" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A274" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D274" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A275" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D275" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A276" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D276" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A277" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A278" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D278" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A279" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A280" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D280" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A281" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D281" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D282" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A283" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D283" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A284" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D284" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>267</v>
+      </c>
+      <c r="D285" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>269</v>
+      </c>
+      <c r="D286" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>270</v>
+      </c>
+      <c r="D287" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A288" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D288" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A289" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D289" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A290" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D290" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A291" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D291" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A292" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D292" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A293" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>274</v>
+      </c>
+      <c r="D294" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A295" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A296" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D296" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A297" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D297" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A298" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D298" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A299" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D299" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A300" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D300" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A301" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D301" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>281</v>
+      </c>
+      <c r="D302" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A303" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D303" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>122</v>
+      </c>
+      <c r="D304" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A305" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D305" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A306" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D306" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A307" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D307" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A308" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D308" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A309" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D309" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A310" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D310" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A311" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D311" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A312" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D312" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A313" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D313" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A314" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D314" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A315" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D315" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A316" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D316" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A317" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D317" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A318" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D318" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A319" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D319" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A320" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D320" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A321" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D321" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A322" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D322" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A323" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D323" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A324" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D324" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A325" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D325" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A326" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D326" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A327" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D327" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A328" t="s">
+        <v>298</v>
+      </c>
+      <c r="D328" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A329" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D329" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A330" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D330" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A331" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D331" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A332" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D332" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A333" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D333" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A334" t="s">
+        <v>301</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A335" t="s">
+        <v>303</v>
+      </c>
+      <c r="D335" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A336" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D336" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A337" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D337" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A338" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D338" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A339" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D339" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A340" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D340" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A341" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D341" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A342" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D342" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A343" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D343" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A344" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D344" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A345" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D345" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A346" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D346" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A347" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D347" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A348" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D348" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A349" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D349" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A350" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D350" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A351" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D351" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A352" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D352" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A353" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D353" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A354" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D354" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A355" t="s">
+        <v>246</v>
+      </c>
+      <c r="D355" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A356" t="s">
+        <v>315</v>
+      </c>
+      <c r="D356" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DRUG DISEASE.xlsx
+++ b/DRUG DISEASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT Room\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88176FD-64C9-45B9-B8FE-366690D65499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3346A7-E006-40F7-A9F8-9715B0CFBB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17595" windowHeight="12780" xr2:uid="{3244C3E9-4DF0-4247-BD4E-75BB2D6BE0CE}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="17595" windowHeight="12780" xr2:uid="{3244C3E9-4DF0-4247-BD4E-75BB2D6BE0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="329">
   <si>
     <t>ชื่อยา</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>NAPROXEN 250 MG</t>
-  </si>
-  <si>
-    <t>M626</t>
   </si>
   <si>
     <t>M179,M626</t>
@@ -596,9 +593,6 @@
   </si>
   <si>
     <t>ปวด ตึงบริเวณเข่าข้างซ้าย ไม่มีอุบัติเหตุ</t>
-  </si>
-  <si>
-    <t>M6266</t>
   </si>
   <si>
     <t xml:space="preserve">บ้านหมุน 2 วัน นอนไม่หลับ </t>
@@ -991,6 +985,51 @@
   </si>
   <si>
     <t xml:space="preserve">AMOXYCILLIN 500 MG </t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN  500 MG  TAB.</t>
+  </si>
+  <si>
+    <t>K603</t>
+  </si>
+  <si>
+    <t>CHLOROQUINE 250 MG</t>
+  </si>
+  <si>
+    <t>L939</t>
+  </si>
+  <si>
+    <t>L639</t>
+  </si>
+  <si>
+    <t>PTU 50 MG</t>
+  </si>
+  <si>
+    <t>E050</t>
+  </si>
+  <si>
+    <t>CELEBREX  200 MG</t>
+  </si>
+  <si>
+    <t>NORGESIC (O)</t>
+  </si>
+  <si>
+    <t>UNIREN SPRAY</t>
+  </si>
+  <si>
+    <t>ปวดหลังปวดเอว</t>
+  </si>
+  <si>
+    <t>M2556</t>
+  </si>
+  <si>
+    <t>M2551</t>
+  </si>
+  <si>
+    <t>M255</t>
+  </si>
+  <si>
+    <t>M796</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC5C3C-1E59-4742-8E49-52DA351D6E49}">
-  <dimension ref="A1:D356"/>
+  <dimension ref="A1:D369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D356" sqref="D356"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D369" sqref="D369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -1601,7 +1640,7 @@
         <v>37</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -1609,71 +1648,71 @@
         <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
         <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
         <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
         <v>46</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
         <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -1681,31 +1720,31 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
         <v>52</v>
-      </c>
-      <c r="D42" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -1713,7 +1752,7 @@
         <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -1721,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -1729,7 +1768,7 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -1737,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -1745,7 +1784,7 @@
         <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
@@ -1753,15 +1792,15 @@
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -1769,7 +1808,7 @@
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
@@ -1777,71 +1816,71 @@
         <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
         <v>56</v>
-      </c>
-      <c r="D52" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
         <v>62</v>
-      </c>
-      <c r="D57" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" t="s">
         <v>44</v>
-      </c>
-      <c r="D59" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -1849,63 +1888,63 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
         <v>64</v>
-      </c>
-      <c r="D61" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s">
         <v>67</v>
-      </c>
-      <c r="D64" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -1913,39 +1952,39 @@
         <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
         <v>74</v>
-      </c>
-      <c r="D70" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
         <v>76</v>
-      </c>
-      <c r="D71" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -1953,55 +1992,55 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" t="s">
         <v>80</v>
-      </c>
-      <c r="D74" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" t="s">
         <v>82</v>
-      </c>
-      <c r="D75" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="112.5" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="112.5" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
         <v>85</v>
-      </c>
-      <c r="D77" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.45">
@@ -2022,7 +2061,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
         <v>35</v>
@@ -2033,20 +2072,20 @@
         <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" t="s">
         <v>88</v>
-      </c>
-      <c r="D84" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
         <v>16</v>
@@ -2054,66 +2093,66 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" t="s">
         <v>91</v>
-      </c>
-      <c r="D88" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" t="s">
         <v>93</v>
-      </c>
-      <c r="D89" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" t="s">
         <v>96</v>
-      </c>
-      <c r="D92" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
@@ -2121,15 +2160,15 @@
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
@@ -2137,7 +2176,7 @@
         <v>31</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
@@ -2145,31 +2184,31 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" t="s">
         <v>96</v>
-      </c>
-      <c r="D99" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
@@ -2177,52 +2216,52 @@
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" t="s">
         <v>105</v>
-      </c>
-      <c r="D102" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" t="s">
         <v>108</v>
-      </c>
-      <c r="D103" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" t="s">
         <v>112</v>
-      </c>
-      <c r="D106" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D107">
         <v>9929</v>
@@ -2230,34 +2269,34 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" t="s">
         <v>96</v>
-      </c>
-      <c r="D108" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D109" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
@@ -2265,15 +2304,15 @@
         <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" t="s">
         <v>50</v>
-      </c>
-      <c r="D113" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
@@ -2281,7 +2320,7 @@
         <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
@@ -2289,23 +2328,23 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D117" t="s">
         <v>115</v>
-      </c>
-      <c r="D117" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
@@ -2313,7 +2352,7 @@
         <v>38</v>
       </c>
       <c r="D118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
@@ -2321,12 +2360,12 @@
         <v>37</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -2334,66 +2373,66 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" t="s">
         <v>118</v>
-      </c>
-      <c r="D121" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D123" t="s">
         <v>120</v>
-      </c>
-      <c r="D123" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D128" t="s">
         <v>124</v>
-      </c>
-      <c r="D128" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
@@ -2401,39 +2440,39 @@
         <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D132" t="s">
         <v>129</v>
-      </c>
-      <c r="D132" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" t="s">
         <v>131</v>
-      </c>
-      <c r="D133" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
@@ -2441,7 +2480,7 @@
         <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
@@ -2449,55 +2488,55 @@
         <v>37</v>
       </c>
       <c r="D135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D137" t="s">
         <v>134</v>
-      </c>
-      <c r="D137" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" t="s">
         <v>137</v>
-      </c>
-      <c r="D139" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D140" t="s">
         <v>139</v>
-      </c>
-      <c r="D140" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" t="s">
         <v>141</v>
-      </c>
-      <c r="D141" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
@@ -2505,7 +2544,7 @@
         <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
@@ -2513,15 +2552,15 @@
         <v>38</v>
       </c>
       <c r="D143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
@@ -2529,7 +2568,7 @@
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
@@ -2537,76 +2576,76 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D150" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D151" t="s">
         <v>96</v>
-      </c>
-      <c r="D151" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D152" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D154" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -2614,66 +2653,66 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D156" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D157" t="s">
         <v>147</v>
-      </c>
-      <c r="D157" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D160" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
+        <v>151</v>
+      </c>
+      <c r="D161" t="s">
         <v>152</v>
-      </c>
-      <c r="D161" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D162" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D163" t="s">
         <v>155</v>
-      </c>
-      <c r="D163" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
@@ -2681,87 +2720,87 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D164" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165" t="s">
+        <v>160</v>
+      </c>
+      <c r="D165" t="s">
         <v>159</v>
-      </c>
-      <c r="B165" t="s">
-        <v>161</v>
-      </c>
-      <c r="D165" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D166" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B167" t="s">
+        <v>163</v>
+      </c>
+      <c r="D167" t="s">
         <v>162</v>
-      </c>
-      <c r="B167" t="s">
-        <v>164</v>
-      </c>
-      <c r="D167" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B168" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D168" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B169" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D169" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B170" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D170" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B171" t="s">
+        <v>164</v>
+      </c>
+      <c r="D171" t="s">
         <v>165</v>
-      </c>
-      <c r="D171" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
@@ -2769,54 +2808,54 @@
         <v>37</v>
       </c>
       <c r="B172" t="s">
+        <v>164</v>
+      </c>
+      <c r="D172" t="s">
         <v>165</v>
-      </c>
-      <c r="D172" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D173" t="s">
-        <v>117</v>
+        <v>326</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D174" t="s">
-        <v>117</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D175" t="s">
-        <v>117</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B176" t="s">
         <v>168</v>
       </c>
-      <c r="B176" t="s">
-        <v>169</v>
-      </c>
       <c r="D176" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
@@ -2824,54 +2863,54 @@
         <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D177" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D178" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B179" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D179" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B180" t="s">
         <v>170</v>
       </c>
-      <c r="B180" t="s">
-        <v>171</v>
-      </c>
       <c r="D180" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B181" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D181" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
@@ -2879,32 +2918,32 @@
         <v>34</v>
       </c>
       <c r="B182" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B183" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" t="s">
+        <v>171</v>
+      </c>
+      <c r="D184" t="s">
         <v>50</v>
-      </c>
-      <c r="B184" t="s">
-        <v>172</v>
-      </c>
-      <c r="D184" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
@@ -2912,95 +2951,95 @@
         <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B186" t="s">
         <v>173</v>
       </c>
-      <c r="B186" t="s">
-        <v>174</v>
-      </c>
       <c r="D186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D187" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B188" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B189" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D189" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B190" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D190" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B191" t="s">
+        <v>177</v>
+      </c>
+      <c r="D191" t="s">
         <v>129</v>
-      </c>
-      <c r="B191" t="s">
-        <v>178</v>
-      </c>
-      <c r="D191" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B192" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D192" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B193" t="s">
+        <v>181</v>
+      </c>
+      <c r="D193" t="s">
         <v>180</v>
-      </c>
-      <c r="B193" t="s">
-        <v>182</v>
-      </c>
-      <c r="D193" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
@@ -3008,43 +3047,43 @@
         <v>37</v>
       </c>
       <c r="B194" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D194" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B195" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D195" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B196" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B197" t="s">
         <v>185</v>
       </c>
-      <c r="B197" t="s">
-        <v>186</v>
-      </c>
       <c r="D197" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
@@ -3052,10 +3091,10 @@
         <v>21</v>
       </c>
       <c r="B198" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D198" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
@@ -3063,10 +3102,10 @@
         <v>38</v>
       </c>
       <c r="B199" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D199" t="s">
-        <v>188</v>
+        <v>325</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
@@ -3074,21 +3113,21 @@
         <v>37</v>
       </c>
       <c r="B200" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D200" t="s">
-        <v>188</v>
+        <v>325</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B201" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D201" t="s">
-        <v>188</v>
+        <v>325</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
@@ -3096,142 +3135,142 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D202" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B203" t="s">
         <v>190</v>
       </c>
-      <c r="B203" t="s">
-        <v>192</v>
-      </c>
       <c r="D203" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B204" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B205" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D205" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B206" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D206" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B207" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D207" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B208" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D208" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B209" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D209" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="90" x14ac:dyDescent="0.45">
       <c r="A210" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D210" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="90" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D211" t="s">
         <v>198</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D211" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="90" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D212" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B213" t="s">
+        <v>199</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B213" t="s">
-        <v>201</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B214" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.45">
@@ -3239,10 +3278,10 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="45" x14ac:dyDescent="0.45">
@@ -3250,54 +3289,54 @@
         <v>4</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D216" t="s">
         <v>206</v>
-      </c>
-      <c r="D216" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D217" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B218" t="s">
         <v>205</v>
       </c>
-      <c r="B218" t="s">
-        <v>207</v>
-      </c>
       <c r="D218" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B219" t="s">
+        <v>208</v>
+      </c>
+      <c r="D219" t="s">
         <v>209</v>
-      </c>
-      <c r="B219" t="s">
-        <v>210</v>
-      </c>
-      <c r="D219" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B220" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D220" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
@@ -3305,73 +3344,73 @@
         <v>21</v>
       </c>
       <c r="B221" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D221" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B222" t="s">
+        <v>210</v>
+      </c>
+      <c r="D222" t="s">
         <v>134</v>
-      </c>
-      <c r="B222" t="s">
-        <v>212</v>
-      </c>
-      <c r="D222" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B223" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D223" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B224" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D224" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B225" t="s">
+        <v>212</v>
+      </c>
+      <c r="D225" t="s">
         <v>124</v>
-      </c>
-      <c r="B225" t="s">
-        <v>214</v>
-      </c>
-      <c r="D225" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="135" x14ac:dyDescent="0.45">
       <c r="A226" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B226" t="s">
+        <v>214</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B226" t="s">
-        <v>216</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D227" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
@@ -3379,31 +3418,31 @@
         <v>38</v>
       </c>
       <c r="D228" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D229" t="s">
         <v>74</v>
-      </c>
-      <c r="D229" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D230" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D231" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
@@ -3411,39 +3450,39 @@
         <v>21</v>
       </c>
       <c r="D232" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D233" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D234" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D235" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D236" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
@@ -3451,7 +3490,7 @@
         <v>31</v>
       </c>
       <c r="D237" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
@@ -3459,34 +3498,34 @@
         <v>24</v>
       </c>
       <c r="D238" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D239" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B240" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D240" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B241" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D241" t="s">
         <v>5</v>
@@ -3494,250 +3533,250 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D242" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D243" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D244" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D245" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D246" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D247" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D248" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D249" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D250" t="s">
         <v>242</v>
-      </c>
-      <c r="D250" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D251" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A252" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D252" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D253" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D254" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D255" t="s">
         <v>249</v>
-      </c>
-      <c r="D255" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D256" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D257" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D258" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D259" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D260" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D261" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D262" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D263" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D264" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D265" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D266" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D267" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D268" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D269" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D270" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D271" t="s">
         <v>262</v>
-      </c>
-      <c r="D271" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D272" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
@@ -3750,7 +3789,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D274" t="s">
         <v>35</v>
@@ -3758,7 +3797,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D275" t="s">
         <v>35</v>
@@ -3766,7 +3805,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D276" t="s">
         <v>35</v>
@@ -3782,10 +3821,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D278" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
@@ -3793,60 +3832,60 @@
         <v>21</v>
       </c>
       <c r="D279" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D280" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D281" t="s">
         <v>46</v>
-      </c>
-      <c r="D281" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D282" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D283" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D284" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D285" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D286" t="s">
         <v>10</v>
@@ -3854,50 +3893,50 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D287" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D288" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D289" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D290" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D291" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D292" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
@@ -3905,23 +3944,23 @@
         <v>21</v>
       </c>
       <c r="D293" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D294" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="45" x14ac:dyDescent="0.45">
@@ -3929,7 +3968,7 @@
         <v>23</v>
       </c>
       <c r="D296" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
@@ -3937,7 +3976,7 @@
         <v>38</v>
       </c>
       <c r="D297" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
@@ -3945,135 +3984,135 @@
         <v>37</v>
       </c>
       <c r="D298" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D299" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D300" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D301" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D302" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D303" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D304" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D305" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D306" t="s">
         <v>286</v>
-      </c>
-      <c r="D306" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D307" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D308" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D309" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D310" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D311" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D312" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D313" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D314" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="45" x14ac:dyDescent="0.45">
@@ -4081,23 +4120,23 @@
         <v>29</v>
       </c>
       <c r="D315" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D316" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D317" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.45">
@@ -4105,143 +4144,143 @@
         <v>31</v>
       </c>
       <c r="D318" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D319" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D320" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D321" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D322" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D323" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D324" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D325" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D326" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D327" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D328" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D329" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D330" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D331" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D332" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D333" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D335" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
@@ -4249,23 +4288,23 @@
         <v>26</v>
       </c>
       <c r="D336" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D337" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D338" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
@@ -4273,7 +4312,7 @@
         <v>24</v>
       </c>
       <c r="D339" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
@@ -4281,63 +4320,63 @@
         <v>27</v>
       </c>
       <c r="D340" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D341" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D342" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D343" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D344" t="s">
         <v>309</v>
-      </c>
-      <c r="D344" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D345" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D346" t="s">
-        <v>39</v>
+        <v>327</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D347" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
@@ -4345,7 +4384,7 @@
         <v>24</v>
       </c>
       <c r="D348" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
@@ -4353,39 +4392,39 @@
         <v>22</v>
       </c>
       <c r="D349" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D350" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D351" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D352" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D353" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
@@ -4393,23 +4432,136 @@
         <v>26</v>
       </c>
       <c r="D354" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D355" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
+        <v>313</v>
+      </c>
+      <c r="D356" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A357" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D357" t="s">
         <v>315</v>
       </c>
-      <c r="D356" t="s">
-        <v>78</v>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A358" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D358" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A359" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D359" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A360" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D360" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A361" t="s">
+        <v>128</v>
+      </c>
+      <c r="D361" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A362" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D362" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A363" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D363" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A364" t="s">
+        <v>319</v>
+      </c>
+      <c r="D364" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A365" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B365" t="s">
+        <v>324</v>
+      </c>
+      <c r="D365" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A366" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B366" t="s">
+        <v>324</v>
+      </c>
+      <c r="D366" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A367" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B367" t="s">
+        <v>324</v>
+      </c>
+      <c r="D367" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A368" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D368" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A369" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D369" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/DRUG DISEASE.xlsx
+++ b/DRUG DISEASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT Room\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3346A7-E006-40F7-A9F8-9715B0CFBB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6AF305-0B8F-47BF-BA7B-946AEBFB3725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="17595" windowHeight="12780" xr2:uid="{3244C3E9-4DF0-4247-BD4E-75BB2D6BE0CE}"/>
+    <workbookView xWindow="2670" yWindow="195" windowWidth="17595" windowHeight="12780" xr2:uid="{3244C3E9-4DF0-4247-BD4E-75BB2D6BE0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="338">
   <si>
     <t>ชื่อยา</t>
   </si>
@@ -1030,6 +1030,33 @@
   </si>
   <si>
     <t>M796</t>
+  </si>
+  <si>
+    <t>COLCHICINE 0.6 MG  ( L )</t>
+  </si>
+  <si>
+    <t>M542</t>
+  </si>
+  <si>
+    <t>SMW (180 ML)</t>
+  </si>
+  <si>
+    <t>K132</t>
+  </si>
+  <si>
+    <t>K120</t>
+  </si>
+  <si>
+    <t>G430</t>
+  </si>
+  <si>
+    <t>M2552</t>
+  </si>
+  <si>
+    <t>ปวดข้อศอก</t>
+  </si>
+  <si>
+    <t>หูอื้อ</t>
   </si>
 </sst>
 </file>
@@ -1393,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC5C3C-1E59-4742-8E49-52DA351D6E49}">
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D369" sqref="D369"/>
+    <sheetView tabSelected="1" topLeftCell="A370" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -4564,6 +4591,133 @@
         <v>328</v>
       </c>
     </row>
+    <row r="370" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A370" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D370" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A371" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D371" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A372" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D372" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A373" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D373" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A374" t="s">
+        <v>331</v>
+      </c>
+      <c r="D374" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A375" t="s">
+        <v>331</v>
+      </c>
+      <c r="D375" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A376" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D376" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A377" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D377" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A378" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D378" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A379" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B379" t="s">
+        <v>336</v>
+      </c>
+      <c r="D379" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+      <c r="A380" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B380" t="s">
+        <v>336</v>
+      </c>
+      <c r="D380" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A381" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381" t="s">
+        <v>337</v>
+      </c>
+      <c r="D381" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A382" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B382" t="s">
+        <v>337</v>
+      </c>
+      <c r="D382" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A383" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B383" t="s">
+        <v>337</v>
+      </c>
+      <c r="D383" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
